--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.06466283014424</v>
+        <v>3.516306333333333</v>
       </c>
       <c r="H2">
-        <v>1.06466283014424</v>
+        <v>10.548919</v>
       </c>
       <c r="I2">
-        <v>0.01668921307633541</v>
+        <v>0.04478335964087588</v>
       </c>
       <c r="J2">
-        <v>0.01668921307633541</v>
+        <v>0.04588879802120799</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6467329003081</v>
+        <v>0.9727856666666667</v>
       </c>
       <c r="N2">
-        <v>0.6467329003081</v>
+        <v>2.918357</v>
       </c>
       <c r="O2">
-        <v>0.07987710574302075</v>
+        <v>0.1129009604634424</v>
       </c>
       <c r="P2">
-        <v>0.07987710574302075</v>
+        <v>0.1474950440045494</v>
       </c>
       <c r="Q2">
-        <v>0.6885524799894144</v>
+        <v>3.420612400675889</v>
       </c>
       <c r="R2">
-        <v>0.6885524799894144</v>
+        <v>30.785511606083</v>
       </c>
       <c r="S2">
-        <v>0.001333086037666248</v>
+        <v>0.005056084316234649</v>
       </c>
       <c r="T2">
-        <v>0.001333086037666248</v>
+        <v>0.006768370283453953</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.06466283014424</v>
+        <v>3.516306333333333</v>
       </c>
       <c r="H3">
-        <v>1.06466283014424</v>
+        <v>10.548919</v>
       </c>
       <c r="I3">
-        <v>0.01668921307633541</v>
+        <v>0.04478335964087588</v>
       </c>
       <c r="J3">
-        <v>0.01668921307633541</v>
+        <v>0.04588879802120799</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.40866481102097</v>
+        <v>1.477271666666667</v>
       </c>
       <c r="N3">
-        <v>1.40866481102097</v>
+        <v>4.431815</v>
       </c>
       <c r="O3">
-        <v>0.1739822854423989</v>
+        <v>0.1714513235002746</v>
       </c>
       <c r="P3">
-        <v>0.1739822854423989</v>
+        <v>0.223985875766749</v>
       </c>
       <c r="Q3">
-        <v>1.499753064426187</v>
+        <v>5.194539717553889</v>
       </c>
       <c r="R3">
-        <v>1.499753064426187</v>
+        <v>46.750857457985</v>
       </c>
       <c r="S3">
-        <v>0.002903627433256003</v>
+        <v>0.007678166281216953</v>
       </c>
       <c r="T3">
-        <v>0.002903627433256003</v>
+        <v>0.01027844261266373</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.06466283014424</v>
+        <v>3.516306333333333</v>
       </c>
       <c r="H4">
-        <v>1.06466283014424</v>
+        <v>10.548919</v>
       </c>
       <c r="I4">
-        <v>0.01668921307633541</v>
+        <v>0.04478335964087588</v>
       </c>
       <c r="J4">
-        <v>0.01668921307633541</v>
+        <v>0.04588879802120799</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>6.04120136161128</v>
+        <v>0.06161733333333334</v>
       </c>
       <c r="N4">
-        <v>6.04120136161128</v>
+        <v>0.184852</v>
       </c>
       <c r="O4">
-        <v>0.7461406088145803</v>
+        <v>0.007151273248471058</v>
       </c>
       <c r="P4">
-        <v>0.7461406088145803</v>
+        <v>0.009342501234197522</v>
       </c>
       <c r="Q4">
-        <v>6.431842539124301</v>
+        <v>0.2166654194431111</v>
       </c>
       <c r="R4">
-        <v>6.431842539124301</v>
+        <v>1.949988774988</v>
       </c>
       <c r="S4">
-        <v>0.01245249960541316</v>
+        <v>0.0003202580417764541</v>
       </c>
       <c r="T4">
-        <v>0.01245249960541316</v>
+        <v>0.0004287161521489765</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.3367302100933</v>
+        <v>3.516306333333333</v>
       </c>
       <c r="H5">
-        <v>15.3367302100933</v>
+        <v>10.548919</v>
       </c>
       <c r="I5">
-        <v>0.2404122235918016</v>
+        <v>0.04478335964087588</v>
       </c>
       <c r="J5">
-        <v>0.2404122235918016</v>
+        <v>0.04588879802120799</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.6467329003081</v>
+        <v>0.04191233333333333</v>
       </c>
       <c r="N5">
-        <v>0.6467329003081</v>
+        <v>0.125737</v>
       </c>
       <c r="O5">
-        <v>0.07987710574302075</v>
+        <v>0.004864321968077193</v>
       </c>
       <c r="P5">
-        <v>0.07987710574302075</v>
+        <v>0.006354803181379123</v>
       </c>
       <c r="Q5">
-        <v>9.918768010016496</v>
+        <v>0.1473766031447777</v>
       </c>
       <c r="R5">
-        <v>9.918768010016496</v>
+        <v>1.326389428303</v>
       </c>
       <c r="S5">
-        <v>0.01920343260575709</v>
+        <v>0.0002178406801054141</v>
       </c>
       <c r="T5">
-        <v>0.01920343260575709</v>
+        <v>0.0002916142796548365</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.3367302100933</v>
+        <v>3.516306333333333</v>
       </c>
       <c r="H6">
-        <v>15.3367302100933</v>
+        <v>10.548919</v>
       </c>
       <c r="I6">
-        <v>0.2404122235918016</v>
+        <v>0.04478335964087588</v>
       </c>
       <c r="J6">
-        <v>0.2404122235918016</v>
+        <v>0.04588879802120799</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.40866481102097</v>
+        <v>6.0626875</v>
       </c>
       <c r="N6">
-        <v>1.40866481102097</v>
+        <v>12.125375</v>
       </c>
       <c r="O6">
-        <v>0.1739822854423989</v>
+        <v>0.7036321208197348</v>
       </c>
       <c r="P6">
-        <v>0.1739822854423989</v>
+        <v>0.6128217758131249</v>
       </c>
       <c r="Q6">
-        <v>21.60431216308068</v>
+        <v>21.31826645327083</v>
       </c>
       <c r="R6">
-        <v>21.60431216308068</v>
+        <v>127.909598719625</v>
       </c>
       <c r="S6">
-        <v>0.04182746810879066</v>
+        <v>0.03151101032154242</v>
       </c>
       <c r="T6">
-        <v>0.04182746810879066</v>
+        <v>0.02812165469328649</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.3367302100933</v>
+        <v>17.624015</v>
       </c>
       <c r="H7">
-        <v>15.3367302100933</v>
+        <v>52.872045</v>
       </c>
       <c r="I7">
-        <v>0.2404122235918016</v>
+        <v>0.2244578620978674</v>
       </c>
       <c r="J7">
-        <v>0.2404122235918016</v>
+        <v>0.2299984096923315</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.04120136161128</v>
+        <v>0.9727856666666667</v>
       </c>
       <c r="N7">
-        <v>6.04120136161128</v>
+        <v>2.918357</v>
       </c>
       <c r="O7">
-        <v>0.7461406088145803</v>
+        <v>0.1129009604634424</v>
       </c>
       <c r="P7">
-        <v>0.7461406088145803</v>
+        <v>0.1474950440045494</v>
       </c>
       <c r="Q7">
-        <v>92.6522754278805</v>
+        <v>17.14438918111833</v>
       </c>
       <c r="R7">
-        <v>92.6522754278805</v>
+        <v>154.299502630065</v>
       </c>
       <c r="S7">
-        <v>0.1793813228772539</v>
+        <v>0.02534150821442013</v>
       </c>
       <c r="T7">
-        <v>0.1793813228772539</v>
+        <v>0.03392362555854682</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.3540273013094</v>
+        <v>17.624015</v>
       </c>
       <c r="H8">
-        <v>18.3540273013094</v>
+        <v>52.872045</v>
       </c>
       <c r="I8">
-        <v>0.2877101217095469</v>
+        <v>0.2244578620978674</v>
       </c>
       <c r="J8">
-        <v>0.2877101217095469</v>
+        <v>0.2299984096923315</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6467329003081</v>
+        <v>1.477271666666667</v>
       </c>
       <c r="N8">
-        <v>0.6467329003081</v>
+        <v>4.431815</v>
       </c>
       <c r="O8">
-        <v>0.07987710574302075</v>
+        <v>0.1714513235002746</v>
       </c>
       <c r="P8">
-        <v>0.07987710574302075</v>
+        <v>0.223985875766749</v>
       </c>
       <c r="Q8">
-        <v>11.87015330890988</v>
+        <v>26.03545801240833</v>
       </c>
       <c r="R8">
-        <v>11.87015330890988</v>
+        <v>234.319122111675</v>
       </c>
       <c r="S8">
-        <v>0.02298145181513084</v>
+        <v>0.03848359752672149</v>
       </c>
       <c r="T8">
-        <v>0.02298145181513084</v>
+        <v>0.05151639521989641</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.3540273013094</v>
+        <v>17.624015</v>
       </c>
       <c r="H9">
-        <v>18.3540273013094</v>
+        <v>52.872045</v>
       </c>
       <c r="I9">
-        <v>0.2877101217095469</v>
+        <v>0.2244578620978674</v>
       </c>
       <c r="J9">
-        <v>0.2877101217095469</v>
+        <v>0.2299984096923315</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.40866481102097</v>
+        <v>0.06161733333333334</v>
       </c>
       <c r="N9">
-        <v>1.40866481102097</v>
+        <v>0.184852</v>
       </c>
       <c r="O9">
-        <v>0.1739822854423989</v>
+        <v>0.007151273248471058</v>
       </c>
       <c r="P9">
-        <v>0.1739822854423989</v>
+        <v>0.009342501234197522</v>
       </c>
       <c r="Q9">
-        <v>25.85467239987273</v>
+        <v>1.085944806926667</v>
       </c>
       <c r="R9">
-        <v>25.85467239987273</v>
+        <v>9.77350326234</v>
       </c>
       <c r="S9">
-        <v>0.05005646451993771</v>
+        <v>0.001605159504629485</v>
       </c>
       <c r="T9">
-        <v>0.05005646451993771</v>
+        <v>0.002148760426414074</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.3540273013094</v>
+        <v>17.624015</v>
       </c>
       <c r="H10">
-        <v>18.3540273013094</v>
+        <v>52.872045</v>
       </c>
       <c r="I10">
-        <v>0.2877101217095469</v>
+        <v>0.2244578620978674</v>
       </c>
       <c r="J10">
-        <v>0.2877101217095469</v>
+        <v>0.2299984096923315</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>6.04120136161128</v>
+        <v>0.04191233333333333</v>
       </c>
       <c r="N10">
-        <v>6.04120136161128</v>
+        <v>0.125737</v>
       </c>
       <c r="O10">
-        <v>0.7461406088145803</v>
+        <v>0.004864321968077193</v>
       </c>
       <c r="P10">
-        <v>0.7461406088145803</v>
+        <v>0.006354803181379123</v>
       </c>
       <c r="Q10">
-        <v>110.8803747237209</v>
+        <v>0.7386635913516666</v>
       </c>
       <c r="R10">
-        <v>110.8803747237209</v>
+        <v>6.647972322165</v>
       </c>
       <c r="S10">
-        <v>0.2146722053744783</v>
+        <v>0.001091835309510298</v>
       </c>
       <c r="T10">
-        <v>0.2146722053744783</v>
+        <v>0.001461594625624967</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.7832541470708</v>
+        <v>17.624015</v>
       </c>
       <c r="H11">
-        <v>24.7832541470708</v>
+        <v>52.872045</v>
       </c>
       <c r="I11">
-        <v>0.3884920159459325</v>
+        <v>0.2244578620978674</v>
       </c>
       <c r="J11">
-        <v>0.3884920159459325</v>
+        <v>0.2299984096923315</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6467329003081</v>
+        <v>6.0626875</v>
       </c>
       <c r="N11">
-        <v>0.6467329003081</v>
+        <v>12.125375</v>
       </c>
       <c r="O11">
-        <v>0.07987710574302075</v>
+        <v>0.7036321208197348</v>
       </c>
       <c r="P11">
-        <v>0.07987710574302075</v>
+        <v>0.6128217758131249</v>
       </c>
       <c r="Q11">
-        <v>16.02814583360785</v>
+        <v>106.8488954403125</v>
       </c>
       <c r="R11">
-        <v>16.02814583360785</v>
+        <v>641.093372641875</v>
       </c>
       <c r="S11">
-        <v>0.03103161783803255</v>
+        <v>0.157935761542586</v>
       </c>
       <c r="T11">
-        <v>0.03103161783803255</v>
+        <v>0.1409480338618492</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.7832541470708</v>
+        <v>26.75080166666666</v>
       </c>
       <c r="H12">
-        <v>24.7832541470708</v>
+        <v>80.252405</v>
       </c>
       <c r="I12">
-        <v>0.3884920159459325</v>
+        <v>0.3406957921622325</v>
       </c>
       <c r="J12">
-        <v>0.3884920159459325</v>
+        <v>0.3491055722165638</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.40866481102097</v>
+        <v>0.9727856666666667</v>
       </c>
       <c r="N12">
-        <v>1.40866481102097</v>
+        <v>2.918357</v>
       </c>
       <c r="O12">
-        <v>0.1739822854423989</v>
+        <v>0.1129009604634424</v>
       </c>
       <c r="P12">
-        <v>0.1739822854423989</v>
+        <v>0.1474950440045494</v>
       </c>
       <c r="Q12">
-        <v>34.91129801956816</v>
+        <v>26.02279643317611</v>
       </c>
       <c r="R12">
-        <v>34.91129801956816</v>
+        <v>234.205167898585</v>
       </c>
       <c r="S12">
-        <v>0.0675907288103982</v>
+        <v>0.03846488216096939</v>
       </c>
       <c r="T12">
-        <v>0.0675907288103982</v>
+        <v>0.05149134173631549</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.7832541470708</v>
+        <v>26.75080166666666</v>
       </c>
       <c r="H13">
-        <v>24.7832541470708</v>
+        <v>80.252405</v>
       </c>
       <c r="I13">
-        <v>0.3884920159459325</v>
+        <v>0.3406957921622325</v>
       </c>
       <c r="J13">
-        <v>0.3884920159459325</v>
+        <v>0.3491055722165638</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.04120136161128</v>
+        <v>1.477271666666667</v>
       </c>
       <c r="N13">
-        <v>6.04120136161128</v>
+        <v>4.431815</v>
       </c>
       <c r="O13">
-        <v>0.7461406088145803</v>
+        <v>0.1714513235002746</v>
       </c>
       <c r="P13">
-        <v>0.7461406088145803</v>
+        <v>0.223985875766749</v>
       </c>
       <c r="Q13">
-        <v>149.7206286984425</v>
+        <v>39.51820136278611</v>
       </c>
       <c r="R13">
-        <v>149.7206286984425</v>
+        <v>355.663812265075</v>
       </c>
       <c r="S13">
-        <v>0.2898696692975017</v>
+        <v>0.05841274447718925</v>
       </c>
       <c r="T13">
-        <v>0.2898696692975017</v>
+        <v>0.07819471732797909</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.25479649617582</v>
+        <v>26.75080166666666</v>
       </c>
       <c r="H14">
-        <v>4.25479649617582</v>
+        <v>80.252405</v>
       </c>
       <c r="I14">
-        <v>0.06669642567638365</v>
+        <v>0.3406957921622325</v>
       </c>
       <c r="J14">
-        <v>0.06669642567638365</v>
+        <v>0.3491055722165638</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.6467329003081</v>
+        <v>0.06161733333333334</v>
       </c>
       <c r="N14">
-        <v>0.6467329003081</v>
+        <v>0.184852</v>
       </c>
       <c r="O14">
-        <v>0.07987710574302075</v>
+        <v>0.007151273248471058</v>
       </c>
       <c r="P14">
-        <v>0.07987710574302075</v>
+        <v>0.009342501234197522</v>
       </c>
       <c r="Q14">
-        <v>2.75171687819253</v>
+        <v>1.648313063228889</v>
       </c>
       <c r="R14">
-        <v>2.75171687819253</v>
+        <v>14.83481756906</v>
       </c>
       <c r="S14">
-        <v>0.00532751744643402</v>
+        <v>0.002436408704356429</v>
       </c>
       <c r="T14">
-        <v>0.00532751744643402</v>
+        <v>0.00326151923929848</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.25479649617582</v>
+        <v>26.75080166666666</v>
       </c>
       <c r="H15">
-        <v>4.25479649617582</v>
+        <v>80.252405</v>
       </c>
       <c r="I15">
-        <v>0.06669642567638365</v>
+        <v>0.3406957921622325</v>
       </c>
       <c r="J15">
-        <v>0.06669642567638365</v>
+        <v>0.3491055722165638</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>1.40866481102097</v>
+        <v>0.04191233333333333</v>
       </c>
       <c r="N15">
-        <v>1.40866481102097</v>
+        <v>0.125737</v>
       </c>
       <c r="O15">
-        <v>0.1739822854423989</v>
+        <v>0.004864321968077193</v>
       </c>
       <c r="P15">
-        <v>0.1739822854423989</v>
+        <v>0.006354803181379123</v>
       </c>
       <c r="Q15">
-        <v>5.993582102218197</v>
+        <v>1.121188516387222</v>
       </c>
       <c r="R15">
-        <v>5.993582102218197</v>
+        <v>10.090696647485</v>
       </c>
       <c r="S15">
-        <v>0.01160399657001632</v>
+        <v>0.001657254026246209</v>
       </c>
       <c r="T15">
-        <v>0.01160399657001632</v>
+        <v>0.002218497200958999</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.25479649617582</v>
+        <v>26.75080166666666</v>
       </c>
       <c r="H16">
-        <v>4.25479649617582</v>
+        <v>80.252405</v>
       </c>
       <c r="I16">
-        <v>0.06669642567638365</v>
+        <v>0.3406957921622325</v>
       </c>
       <c r="J16">
-        <v>0.06669642567638365</v>
+        <v>0.3491055722165638</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.04120136161128</v>
+        <v>6.0626875</v>
       </c>
       <c r="N16">
-        <v>6.04120136161128</v>
+        <v>12.125375</v>
       </c>
       <c r="O16">
-        <v>0.7461406088145803</v>
+        <v>0.7036321208197348</v>
       </c>
       <c r="P16">
-        <v>0.7461406088145803</v>
+        <v>0.6128217758131249</v>
       </c>
       <c r="Q16">
-        <v>25.70408238607627</v>
+        <v>162.1817508794792</v>
       </c>
       <c r="R16">
-        <v>25.70408238607627</v>
+        <v>973.090505276875</v>
       </c>
       <c r="S16">
-        <v>0.0497649116599333</v>
+        <v>0.2397245027934712</v>
       </c>
       <c r="T16">
-        <v>0.0497649116599333</v>
+        <v>0.2139394967120118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>24.95263266666666</v>
+      </c>
+      <c r="H17">
+        <v>74.85789799999999</v>
+      </c>
+      <c r="I17">
+        <v>0.3177944743052822</v>
+      </c>
+      <c r="J17">
+        <v>0.3256389551966594</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9727856666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.918357</v>
+      </c>
+      <c r="O17">
+        <v>0.1129009604634424</v>
+      </c>
+      <c r="P17">
+        <v>0.1474950440045494</v>
+      </c>
+      <c r="Q17">
+        <v>24.27356340373177</v>
+      </c>
+      <c r="R17">
+        <v>218.462070633586</v>
+      </c>
+      <c r="S17">
+        <v>0.03587930137904112</v>
+      </c>
+      <c r="T17">
+        <v>0.04803013202632678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>24.95263266666666</v>
+      </c>
+      <c r="H18">
+        <v>74.85789799999999</v>
+      </c>
+      <c r="I18">
+        <v>0.3177944743052822</v>
+      </c>
+      <c r="J18">
+        <v>0.3256389551966594</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.477271666666667</v>
+      </c>
+      <c r="N18">
+        <v>4.431815</v>
+      </c>
+      <c r="O18">
+        <v>0.1714513235002746</v>
+      </c>
+      <c r="P18">
+        <v>0.223985875766749</v>
+      </c>
+      <c r="Q18">
+        <v>36.86181724720777</v>
+      </c>
+      <c r="R18">
+        <v>331.75635522487</v>
+      </c>
+      <c r="S18">
+        <v>0.05448628322071464</v>
+      </c>
+      <c r="T18">
+        <v>0.07293852656349291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>24.95263266666666</v>
+      </c>
+      <c r="H19">
+        <v>74.85789799999999</v>
+      </c>
+      <c r="I19">
+        <v>0.3177944743052822</v>
+      </c>
+      <c r="J19">
+        <v>0.3256389551966594</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.06161733333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.184852</v>
+      </c>
+      <c r="O19">
+        <v>0.007151273248471058</v>
+      </c>
+      <c r="P19">
+        <v>0.009342501234197522</v>
+      </c>
+      <c r="Q19">
+        <v>1.537514684566222</v>
+      </c>
+      <c r="R19">
+        <v>13.837632161096</v>
+      </c>
+      <c r="S19">
+        <v>0.002272635122611287</v>
+      </c>
+      <c r="T19">
+        <v>0.003042282340827582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>24.95263266666666</v>
+      </c>
+      <c r="H20">
+        <v>74.85789799999999</v>
+      </c>
+      <c r="I20">
+        <v>0.3177944743052822</v>
+      </c>
+      <c r="J20">
+        <v>0.3256389551966594</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.04191233333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.125737</v>
+      </c>
+      <c r="O20">
+        <v>0.004864321968077193</v>
+      </c>
+      <c r="P20">
+        <v>0.006354803181379123</v>
+      </c>
+      <c r="Q20">
+        <v>1.045823057869555</v>
+      </c>
+      <c r="R20">
+        <v>9.412407520825997</v>
+      </c>
+      <c r="S20">
+        <v>0.001545854642696727</v>
+      </c>
+      <c r="T20">
+        <v>0.002069371468464705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>24.95263266666666</v>
+      </c>
+      <c r="H21">
+        <v>74.85789799999999</v>
+      </c>
+      <c r="I21">
+        <v>0.3177944743052822</v>
+      </c>
+      <c r="J21">
+        <v>0.3256389551966594</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.0626875</v>
+      </c>
+      <c r="N21">
+        <v>12.125375</v>
+      </c>
+      <c r="O21">
+        <v>0.7036321208197348</v>
+      </c>
+      <c r="P21">
+        <v>0.6128217758131249</v>
+      </c>
+      <c r="Q21">
+        <v>151.2800141602916</v>
+      </c>
+      <c r="R21">
+        <v>907.6800849617499</v>
+      </c>
+      <c r="S21">
+        <v>0.2236103999402184</v>
+      </c>
+      <c r="T21">
+        <v>0.1995586427975475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.6743895</v>
+      </c>
+      <c r="H22">
+        <v>11.348779</v>
+      </c>
+      <c r="I22">
+        <v>0.07226851179374205</v>
+      </c>
+      <c r="J22">
+        <v>0.04936826487323742</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.9727856666666667</v>
+      </c>
+      <c r="N22">
+        <v>2.918357</v>
+      </c>
+      <c r="O22">
+        <v>0.1129009604634424</v>
+      </c>
+      <c r="P22">
+        <v>0.1474950440045494</v>
+      </c>
+      <c r="Q22">
+        <v>5.519964772683833</v>
+      </c>
+      <c r="R22">
+        <v>33.119788636103</v>
+      </c>
+      <c r="S22">
+        <v>0.00815918439277709</v>
+      </c>
+      <c r="T22">
+        <v>0.007281574399906406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.6743895</v>
+      </c>
+      <c r="H23">
+        <v>11.348779</v>
+      </c>
+      <c r="I23">
+        <v>0.07226851179374205</v>
+      </c>
+      <c r="J23">
+        <v>0.04936826487323742</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.477271666666667</v>
+      </c>
+      <c r="N23">
+        <v>4.431815</v>
+      </c>
+      <c r="O23">
+        <v>0.1714513235002746</v>
+      </c>
+      <c r="P23">
+        <v>0.223985875766749</v>
+      </c>
+      <c r="Q23">
+        <v>8.382614833980835</v>
+      </c>
+      <c r="R23">
+        <v>50.295689003885</v>
+      </c>
+      <c r="S23">
+        <v>0.01239053199443228</v>
+      </c>
+      <c r="T23">
+        <v>0.01105779404271692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.6743895</v>
+      </c>
+      <c r="H24">
+        <v>11.348779</v>
+      </c>
+      <c r="I24">
+        <v>0.07226851179374205</v>
+      </c>
+      <c r="J24">
+        <v>0.04936826487323742</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.06161733333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.184852</v>
+      </c>
+      <c r="O24">
+        <v>0.007151273248471058</v>
+      </c>
+      <c r="P24">
+        <v>0.009342501234197522</v>
+      </c>
+      <c r="Q24">
+        <v>0.3496407492846667</v>
+      </c>
+      <c r="R24">
+        <v>2.097844495708</v>
+      </c>
+      <c r="S24">
+        <v>0.0005168118750974027</v>
+      </c>
+      <c r="T24">
+        <v>0.0004612230755084108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.6743895</v>
+      </c>
+      <c r="H25">
+        <v>11.348779</v>
+      </c>
+      <c r="I25">
+        <v>0.07226851179374205</v>
+      </c>
+      <c r="J25">
+        <v>0.04936826487323742</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.04191233333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.125737</v>
+      </c>
+      <c r="O25">
+        <v>0.004864321968077193</v>
+      </c>
+      <c r="P25">
+        <v>0.006354803181379123</v>
+      </c>
+      <c r="Q25">
+        <v>0.2378269041871666</v>
+      </c>
+      <c r="R25">
+        <v>1.426961425123</v>
+      </c>
+      <c r="S25">
+        <v>0.0003515373095185451</v>
+      </c>
+      <c r="T25">
+        <v>0.0003137256066756164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.6743895</v>
+      </c>
+      <c r="H26">
+        <v>11.348779</v>
+      </c>
+      <c r="I26">
+        <v>0.07226851179374205</v>
+      </c>
+      <c r="J26">
+        <v>0.04936826487323742</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.0626875</v>
+      </c>
+      <c r="N26">
+        <v>12.125375</v>
+      </c>
+      <c r="O26">
+        <v>0.7036321208197348</v>
+      </c>
+      <c r="P26">
+        <v>0.6128217758131249</v>
+      </c>
+      <c r="Q26">
+        <v>34.40205029178125</v>
+      </c>
+      <c r="R26">
+        <v>137.608201167125</v>
+      </c>
+      <c r="S26">
+        <v>0.05085044622191674</v>
+      </c>
+      <c r="T26">
+        <v>0.03025394774843007</v>
       </c>
     </row>
   </sheetData>
